--- a/natmiOut/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H2">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I2">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J2">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.5866363555371</v>
+        <v>73.91316300000001</v>
       </c>
       <c r="N2">
-        <v>57.5866363555371</v>
+        <v>221.739489</v>
       </c>
       <c r="O2">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809399</v>
       </c>
       <c r="P2">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809398</v>
       </c>
       <c r="Q2">
-        <v>2768.641923434081</v>
+        <v>4501.54713867504</v>
       </c>
       <c r="R2">
-        <v>2768.641923434081</v>
+        <v>40513.92424807536</v>
       </c>
       <c r="S2">
-        <v>0.2343300614379493</v>
+        <v>0.2925643332664363</v>
       </c>
       <c r="T2">
-        <v>0.2343300614379493</v>
+        <v>0.2925643332664362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H3">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I3">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J3">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2969331831618</v>
+        <v>31.40056566666667</v>
       </c>
       <c r="N3">
-        <v>31.2969331831618</v>
+        <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="P3">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="Q3">
-        <v>1504.689399652449</v>
+        <v>1912.394501769069</v>
       </c>
       <c r="R3">
-        <v>1504.689399652449</v>
+        <v>17211.55051592162</v>
       </c>
       <c r="S3">
-        <v>0.1273526765889068</v>
+        <v>0.124290250688599</v>
       </c>
       <c r="T3">
-        <v>0.1273526765889068</v>
+        <v>0.124290250688599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H4">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I4">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J4">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.8600802448092</v>
+        <v>15.928304</v>
       </c>
       <c r="N4">
-        <v>15.8600802448092</v>
+        <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="P4">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="Q4">
-        <v>762.5186302548346</v>
+        <v>970.0844664859786</v>
       </c>
       <c r="R4">
-        <v>762.5186302548346</v>
+        <v>8730.760198373808</v>
       </c>
       <c r="S4">
-        <v>0.06453743113647921</v>
+        <v>0.06304768258699887</v>
       </c>
       <c r="T4">
-        <v>0.06453743113647921</v>
+        <v>0.06304768258699887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H5">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I5">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J5">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5866363555371</v>
+        <v>73.91316300000001</v>
       </c>
       <c r="N5">
-        <v>57.5866363555371</v>
+        <v>221.739489</v>
       </c>
       <c r="O5">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809399</v>
       </c>
       <c r="P5">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809398</v>
       </c>
       <c r="Q5">
-        <v>2911.596339347389</v>
+        <v>3801.034816052166</v>
       </c>
       <c r="R5">
-        <v>2911.596339347389</v>
+        <v>34209.31334446949</v>
       </c>
       <c r="S5">
-        <v>0.2464293209269633</v>
+        <v>0.2470366703764268</v>
       </c>
       <c r="T5">
-        <v>0.2464293209269633</v>
+        <v>0.2470366703764268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H6">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I6">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J6">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.2969331831618</v>
+        <v>31.40056566666667</v>
       </c>
       <c r="N6">
-        <v>31.2969331831618</v>
+        <v>94.201697</v>
       </c>
       <c r="O6">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="P6">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="Q6">
-        <v>1582.381640182947</v>
+        <v>1614.795504594118</v>
       </c>
       <c r="R6">
-        <v>1582.381640182947</v>
+        <v>14533.15954134706</v>
       </c>
       <c r="S6">
-        <v>0.1339283292013553</v>
+        <v>0.1049487111007504</v>
       </c>
       <c r="T6">
-        <v>0.1339283292013553</v>
+        <v>0.1049487111007504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H7">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I7">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J7">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.8600802448092</v>
+        <v>15.928304</v>
       </c>
       <c r="N7">
-        <v>15.8600802448092</v>
+        <v>47.784912</v>
       </c>
       <c r="O7">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="P7">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="Q7">
-        <v>801.8900652130583</v>
+        <v>819.1238963033279</v>
       </c>
       <c r="R7">
-        <v>801.8900652130583</v>
+        <v>7372.115066729951</v>
       </c>
       <c r="S7">
-        <v>0.06786971860008065</v>
+        <v>0.05323646053279468</v>
       </c>
       <c r="T7">
-        <v>0.06786971860008065</v>
+        <v>0.05323646053279468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H8">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I8">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J8">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.5866363555371</v>
+        <v>73.91316300000001</v>
       </c>
       <c r="N8">
-        <v>57.5866363555371</v>
+        <v>221.739489</v>
       </c>
       <c r="O8">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809399</v>
       </c>
       <c r="P8">
-        <v>0.5497864211774308</v>
+        <v>0.6096331558809398</v>
       </c>
       <c r="Q8">
-        <v>815.5639627886836</v>
+        <v>1077.551152605709</v>
       </c>
       <c r="R8">
-        <v>815.5639627886836</v>
+        <v>9697.96037345138</v>
       </c>
       <c r="S8">
-        <v>0.06902703881251829</v>
+        <v>0.07003215223807675</v>
       </c>
       <c r="T8">
-        <v>0.06902703881251829</v>
+        <v>0.07003215223807674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H9">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I9">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J9">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.2969331831618</v>
+        <v>31.40056566666667</v>
       </c>
       <c r="N9">
-        <v>31.2969331831618</v>
+        <v>94.201697</v>
       </c>
       <c r="O9">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="P9">
-        <v>0.2987955188486234</v>
+        <v>0.2589907557307037</v>
       </c>
       <c r="Q9">
-        <v>443.2391343784021</v>
+        <v>457.7765901668681</v>
       </c>
       <c r="R9">
-        <v>443.2391343784021</v>
+        <v>4119.989311501812</v>
       </c>
       <c r="S9">
-        <v>0.03751451305836132</v>
+        <v>0.0297517939413542</v>
       </c>
       <c r="T9">
-        <v>0.03751451305836132</v>
+        <v>0.0297517939413542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H10">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I10">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J10">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.8600802448092</v>
+        <v>15.928304</v>
       </c>
       <c r="N10">
-        <v>15.8600802448092</v>
+        <v>47.784912</v>
       </c>
       <c r="O10">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="P10">
-        <v>0.1514180599739458</v>
+        <v>0.1313760883883564</v>
       </c>
       <c r="Q10">
-        <v>224.6165206584319</v>
+        <v>232.2125266680053</v>
       </c>
       <c r="R10">
-        <v>224.6165206584319</v>
+        <v>2089.912740012048</v>
       </c>
       <c r="S10">
-        <v>0.0190109102373859</v>
+        <v>0.01509194526856288</v>
       </c>
       <c r="T10">
-        <v>0.0190109102373859</v>
+        <v>0.01509194526856288</v>
       </c>
     </row>
   </sheetData>
